--- a/MedicalLink/Templates/BC_PhauThuatThuThuat_ThanhToanPhauThuat.xlsx
+++ b/MedicalLink/Templates/BC_PhauThuatThuThuat_ThanhToanPhauThuat.xlsx
@@ -204,7 +204,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -412,42 +412,6 @@
     <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -465,9 +429,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -485,7 +446,46 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -771,37 +771,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="P1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="6" customWidth="1"/>
-    <col min="2" max="3" width="12.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="25.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="9" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="33.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="1"/>
-    <col min="9" max="9" width="19.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="7" customWidth="1"/>
-    <col min="12" max="12" width="23.42578125" style="7" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="7" customWidth="1"/>
-    <col min="14" max="14" width="23.42578125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="7" customWidth="1"/>
-    <col min="16" max="16" width="23.42578125" style="7" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="7" customWidth="1"/>
-    <col min="18" max="18" width="23.42578125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="7" customWidth="1"/>
-    <col min="20" max="20" width="23.42578125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" style="7" customWidth="1"/>
-    <col min="22" max="22" width="23.42578125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="15.140625" style="7" customWidth="1"/>
-    <col min="24" max="24" width="23.42578125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="15.140625" style="7" customWidth="1"/>
-    <col min="26" max="26" width="18.42578125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="3" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="30" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" style="7" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" style="7" customWidth="1"/>
+    <col min="16" max="16" width="19.28515625" style="7" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" style="7" customWidth="1"/>
+    <col min="18" max="18" width="19.28515625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="13.28515625" style="7" customWidth="1"/>
+    <col min="20" max="20" width="19.28515625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="13.28515625" style="7" customWidth="1"/>
+    <col min="22" max="22" width="19.28515625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="13.28515625" style="7" customWidth="1"/>
+    <col min="24" max="24" width="19.28515625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="13.28515625" style="7" customWidth="1"/>
+    <col min="26" max="26" width="16.42578125" style="9" customWidth="1"/>
     <col min="27" max="27" width="8.42578125" style="1" customWidth="1"/>
     <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -815,15 +816,15 @@
       <c r="A2" s="6"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="23" t="s">
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
       <c r="O2" s="8"/>
@@ -836,102 +837,102 @@
       <c r="Z2" s="9"/>
     </row>
     <row r="3" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="40" t="s">
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="24" t="s">
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:26" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="25" t="s">
+      <c r="J7" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="26"/>
-      <c r="L7" s="25" t="s">
+      <c r="K7" s="36"/>
+      <c r="L7" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="26"/>
-      <c r="N7" s="25" t="s">
+      <c r="M7" s="36"/>
+      <c r="N7" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="26"/>
-      <c r="P7" s="25" t="s">
+      <c r="O7" s="36"/>
+      <c r="P7" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="25" t="s">
+      <c r="Q7" s="36"/>
+      <c r="R7" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="S7" s="26"/>
-      <c r="T7" s="25" t="s">
+      <c r="S7" s="36"/>
+      <c r="T7" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="U7" s="26"/>
-      <c r="V7" s="25" t="s">
+      <c r="U7" s="36"/>
+      <c r="V7" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="W7" s="26"/>
-      <c r="X7" s="25" t="s">
+      <c r="W7" s="36"/>
+      <c r="X7" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="15" t="s">
+      <c r="Y7" s="36"/>
+      <c r="Z7" s="28" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
       <c r="J8" s="11" t="s">
         <v>15</v>
       </c>
@@ -980,7 +981,7 @@
       <c r="Y8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="Z8" s="16"/>
+      <c r="Z8" s="29"/>
     </row>
     <row r="9" spans="1:26" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -1062,93 +1063,93 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="35" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+    <row r="10" spans="1:26" s="22" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="G10" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="32" t="s">
+      <c r="H10" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="32" t="s">
+      <c r="I10" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="32" t="s">
+      <c r="J10" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="34" t="s">
+      <c r="K10" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="L10" s="32" t="s">
+      <c r="L10" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="M10" s="34" t="s">
+      <c r="M10" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="N10" s="32" t="s">
+      <c r="N10" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="O10" s="34" t="s">
+      <c r="O10" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="P10" s="32" t="s">
+      <c r="P10" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="Q10" s="34" t="s">
+      <c r="Q10" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="R10" s="32" t="s">
+      <c r="R10" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="S10" s="34" t="s">
+      <c r="S10" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="T10" s="32" t="s">
+      <c r="T10" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="U10" s="34" t="s">
+      <c r="U10" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="V10" s="32" t="s">
+      <c r="V10" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="W10" s="34" t="s">
+      <c r="W10" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="X10" s="32" t="s">
+      <c r="X10" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="Y10" s="34" t="s">
+      <c r="Y10" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="Z10" s="33" t="s">
+      <c r="Z10" s="27" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:26" s="10" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="22"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="34"/>
       <c r="E11" s="14"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
@@ -1200,21 +1201,21 @@
       <c r="Z11" s="14"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="W13" s="17" t="s">
+      <c r="W13" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
+      <c r="X13" s="37"/>
+      <c r="Y13" s="37"/>
     </row>
-    <row r="15" spans="1:26" s="38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="36"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38" t="s">
+    <row r="15" spans="1:26" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="23"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="39"/>
-      <c r="H15" s="38" t="s">
+      <c r="E15" s="26"/>
+      <c r="H15" s="25" t="s">
         <v>53</v>
       </c>
       <c r="K15" s="10"/>
@@ -1226,12 +1227,12 @@
       <c r="Q15" s="10"/>
       <c r="S15" s="10"/>
       <c r="U15" s="10"/>
-      <c r="V15" s="38" t="s">
+      <c r="V15" s="25" t="s">
         <v>55</v>
       </c>
       <c r="W15" s="10"/>
       <c r="Y15" s="10"/>
-      <c r="Z15" s="39"/>
+      <c r="Z15" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -1251,17 +1252,17 @@
     <mergeCell ref="V7:W7"/>
     <mergeCell ref="X7:Y7"/>
     <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="41" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" scale="55" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;CTrang &amp;P</oddFooter>
   </headerFooter>

--- a/MedicalLink/Templates/BC_PhauThuatThuThuat_ThanhToanPhauThuat.xlsx
+++ b/MedicalLink/Templates/BC_PhauThuatThuThuat_ThanhToanPhauThuat.xlsx
@@ -158,12 +158,6 @@
     <t>&amp;=[DATA1].NGAY_THANHTOAN</t>
   </si>
   <si>
-    <t>Ngày thực hiện</t>
-  </si>
-  <si>
-    <t>&amp;=[DATA1].NGAY_THUCHIEN</t>
-  </si>
-  <si>
     <t>Mời mổ chính</t>
   </si>
   <si>
@@ -195,6 +189,12 @@
   </si>
   <si>
     <t>NGƯỜI LẬP BẢNG</t>
+  </si>
+  <si>
+    <t>Ngày chỉ định</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].NGAY_CHIDINH</t>
   </si>
 </sst>
 </file>
@@ -771,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="P1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="X9" sqref="X9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="J1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,19 +788,19 @@
     <col min="9" max="9" width="15.85546875" style="1" customWidth="1"/>
     <col min="10" max="10" width="19.28515625" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.28515625" style="7" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" style="7" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" style="7" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.140625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="7" customWidth="1"/>
+    <col min="14" max="14" width="17.140625" style="1" customWidth="1"/>
     <col min="15" max="15" width="13.28515625" style="7" customWidth="1"/>
-    <col min="16" max="16" width="19.28515625" style="7" customWidth="1"/>
+    <col min="16" max="16" width="17.140625" style="7" customWidth="1"/>
     <col min="17" max="17" width="13.28515625" style="7" customWidth="1"/>
-    <col min="18" max="18" width="19.28515625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="17.140625" style="1" customWidth="1"/>
     <col min="19" max="19" width="13.28515625" style="7" customWidth="1"/>
-    <col min="20" max="20" width="19.28515625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="17.140625" style="1" customWidth="1"/>
     <col min="21" max="21" width="13.28515625" style="7" customWidth="1"/>
-    <col min="22" max="22" width="19.28515625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="17.140625" style="1" customWidth="1"/>
     <col min="23" max="23" width="13.28515625" style="7" customWidth="1"/>
-    <col min="24" max="24" width="19.28515625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="17.140625" style="1" customWidth="1"/>
     <col min="25" max="25" width="13.28515625" style="7" customWidth="1"/>
     <col min="26" max="26" width="16.42578125" style="9" customWidth="1"/>
     <col min="27" max="27" width="8.42578125" style="1" customWidth="1"/>
@@ -819,7 +819,7 @@
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
       <c r="G2" s="38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H2" s="38"/>
       <c r="I2" s="38"/>
@@ -873,7 +873,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="F7" s="30" t="s">
         <v>4</v>
@@ -892,7 +892,7 @@
       </c>
       <c r="K7" s="36"/>
       <c r="L7" s="35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M7" s="36"/>
       <c r="N7" s="35" t="s">
@@ -900,7 +900,7 @@
       </c>
       <c r="O7" s="36"/>
       <c r="P7" s="35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q7" s="36"/>
       <c r="R7" s="35" t="s">
@@ -1077,7 +1077,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F10" s="20" t="s">
         <v>26</v>
@@ -1098,10 +1098,10 @@
         <v>31</v>
       </c>
       <c r="L10" s="20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M10" s="21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N10" s="20" t="s">
         <v>32</v>
@@ -1110,10 +1110,10 @@
         <v>33</v>
       </c>
       <c r="P10" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q10" s="21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="R10" s="20" t="s">
         <v>34</v>
@@ -1212,23 +1212,23 @@
       <c r="B15" s="24"/>
       <c r="C15" s="24"/>
       <c r="D15" s="25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E15" s="26"/>
       <c r="H15" s="25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
       <c r="O15" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P15" s="10"/>
       <c r="Q15" s="10"/>
       <c r="S15" s="10"/>
       <c r="U15" s="10"/>
       <c r="V15" s="25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="W15" s="10"/>
       <c r="Y15" s="10"/>

--- a/MedicalLink/Templates/BC_PhauThuatThuThuat_ThanhToanPhauThuat.xlsx
+++ b/MedicalLink/Templates/BC_PhauThuatThuThuat_ThanhToanPhauThuat.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\O2S_MedicalLink\trunk\MedicalLink\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolsHIS-MedicalLink\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -206,7 +206,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,6 +268,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -380,7 +386,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -449,18 +455,36 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -470,23 +494,8 @@
     <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -771,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="J1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,13 +827,13 @@
       <c r="C2" s="3"/>
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
       <c r="O2" s="8"/>
@@ -839,100 +848,100 @@
     <row r="3" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:26" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="30" t="s">
+      <c r="H7" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="I7" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="35" t="s">
+      <c r="J7" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="36"/>
-      <c r="L7" s="35" t="s">
+      <c r="K7" s="35"/>
+      <c r="L7" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="M7" s="36"/>
-      <c r="N7" s="35" t="s">
+      <c r="M7" s="35"/>
+      <c r="N7" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="36"/>
-      <c r="P7" s="35" t="s">
+      <c r="O7" s="35"/>
+      <c r="P7" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="35" t="s">
+      <c r="Q7" s="35"/>
+      <c r="R7" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="S7" s="36"/>
-      <c r="T7" s="35" t="s">
+      <c r="S7" s="35"/>
+      <c r="T7" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="U7" s="36"/>
-      <c r="V7" s="35" t="s">
+      <c r="U7" s="35"/>
+      <c r="V7" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="W7" s="36"/>
-      <c r="X7" s="35" t="s">
+      <c r="W7" s="35"/>
+      <c r="X7" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="Y7" s="36"/>
-      <c r="Z7" s="28" t="s">
+      <c r="Y7" s="35"/>
+      <c r="Z7" s="36" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
       <c r="J8" s="11" t="s">
         <v>15</v>
       </c>
@@ -981,7 +990,7 @@
       <c r="Y8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="Z8" s="29"/>
+      <c r="Z8" s="37"/>
     </row>
     <row r="9" spans="1:26" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -1063,7 +1072,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="22" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" s="22" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>22</v>
       </c>
@@ -1073,7 +1082,7 @@
       <c r="C10" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="41" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="27" t="s">
@@ -1082,7 +1091,7 @@
       <c r="F10" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="41" t="s">
         <v>27</v>
       </c>
       <c r="H10" s="20" t="s">
@@ -1144,12 +1153,12 @@
       </c>
     </row>
     <row r="11" spans="1:26" s="10" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="40"/>
       <c r="E11" s="14"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
@@ -1201,11 +1210,11 @@
       <c r="Z11" s="14"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="W13" s="37" t="s">
+      <c r="W13" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="X13" s="37"/>
-      <c r="Y13" s="37"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="28"/>
     </row>
     <row r="15" spans="1:26" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="23"/>
@@ -1236,6 +1245,18 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="P7:Q7"/>
     <mergeCell ref="W13:Y13"/>
     <mergeCell ref="G2:K2"/>
     <mergeCell ref="G3:K3"/>
@@ -1247,18 +1268,6 @@
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="R7:S7"/>
-    <mergeCell ref="Z7:Z8"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>

--- a/MedicalLink/Templates/BC_PhauThuatThuThuat_ThanhToanPhauThuat.xlsx
+++ b/MedicalLink/Templates/BC_PhauThuatThuThuat_ThanhToanPhauThuat.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolsHIS-MedicalLink\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\O2S_MedicalLink\trunk\MedicalLink\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$Z$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AA$17</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
   <si>
     <t>STT</t>
   </si>
@@ -195,6 +195,12 @@
   </si>
   <si>
     <t>&amp;=[DATA1].NGAY_CHIDINH</t>
+  </si>
+  <si>
+    <t>Tỷ lệ thanh toán</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].TYLE</t>
   </si>
 </sst>
 </file>
@@ -455,6 +461,36 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -466,36 +502,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -778,10 +784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z15"/>
+  <dimension ref="A1:AA15"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="P1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,205 +800,213 @@
     <col min="6" max="6" width="15.28515625" style="1" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="30" style="1" customWidth="1"/>
     <col min="8" max="8" width="8.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="7" customWidth="1"/>
-    <col min="12" max="12" width="17.140625" style="7" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" style="7" customWidth="1"/>
-    <col min="14" max="14" width="17.140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.28515625" style="7" customWidth="1"/>
-    <col min="16" max="16" width="17.140625" style="7" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" style="7" customWidth="1"/>
-    <col min="18" max="18" width="17.140625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="13.28515625" style="7" customWidth="1"/>
-    <col min="20" max="20" width="17.140625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="13.28515625" style="7" customWidth="1"/>
-    <col min="22" max="22" width="17.140625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="13.28515625" style="7" customWidth="1"/>
-    <col min="24" max="24" width="17.140625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="13.28515625" style="7" customWidth="1"/>
-    <col min="26" max="26" width="16.42578125" style="9" customWidth="1"/>
-    <col min="27" max="27" width="8.42578125" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="15.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="17.140625" style="7" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="7" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" style="7" customWidth="1"/>
+    <col min="17" max="17" width="17.140625" style="7" customWidth="1"/>
+    <col min="18" max="18" width="13.28515625" style="7" customWidth="1"/>
+    <col min="19" max="19" width="17.140625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="13.28515625" style="7" customWidth="1"/>
+    <col min="21" max="21" width="17.140625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="13.28515625" style="7" customWidth="1"/>
+    <col min="23" max="23" width="17.140625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="13.28515625" style="7" customWidth="1"/>
+    <col min="25" max="25" width="17.140625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="13.28515625" style="7" customWidth="1"/>
+    <col min="27" max="27" width="16.42578125" style="9" customWidth="1"/>
+    <col min="28" max="28" width="8.42578125" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="5" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="5" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="8"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
       <c r="M2" s="8"/>
-      <c r="O2" s="8"/>
+      <c r="N2" s="8"/>
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="9"/>
+      <c r="R2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="9"/>
     </row>
-    <row r="3" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:26" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+    <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:27" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="H7" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="32" t="s">
+      <c r="I7" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="34" t="s">
+      <c r="K7" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="35"/>
-      <c r="L7" s="34" t="s">
+      <c r="L7" s="37"/>
+      <c r="M7" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="M7" s="35"/>
-      <c r="N7" s="34" t="s">
+      <c r="N7" s="37"/>
+      <c r="O7" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="35"/>
-      <c r="P7" s="34" t="s">
+      <c r="P7" s="37"/>
+      <c r="Q7" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="34" t="s">
+      <c r="R7" s="37"/>
+      <c r="S7" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="S7" s="35"/>
-      <c r="T7" s="34" t="s">
+      <c r="T7" s="37"/>
+      <c r="U7" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="U7" s="35"/>
-      <c r="V7" s="34" t="s">
+      <c r="V7" s="37"/>
+      <c r="W7" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="W7" s="35"/>
-      <c r="X7" s="34" t="s">
+      <c r="X7" s="37"/>
+      <c r="Y7" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="Y7" s="35"/>
-      <c r="Z7" s="36" t="s">
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="29" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="11" t="s">
+    <row r="8" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="L8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="M8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="12" t="s">
+      <c r="N8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="11" t="s">
+      <c r="O8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="12" t="s">
+      <c r="P8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="P8" s="11" t="s">
+      <c r="Q8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q8" s="12" t="s">
+      <c r="R8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="R8" s="11" t="s">
+      <c r="S8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="S8" s="12" t="s">
+      <c r="T8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="T8" s="11" t="s">
+      <c r="U8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="U8" s="12" t="s">
+      <c r="V8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="V8" s="11" t="s">
+      <c r="W8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="W8" s="12" t="s">
+      <c r="X8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="X8" s="11" t="s">
+      <c r="Y8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Y8" s="12" t="s">
+      <c r="Z8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="Z8" s="37"/>
+      <c r="AA8" s="30"/>
     </row>
-    <row r="9" spans="1:26" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -1071,8 +1085,11 @@
       <c r="Z9" s="4">
         <v>26</v>
       </c>
+      <c r="AA9" s="4">
+        <v>27</v>
+      </c>
     </row>
-    <row r="10" spans="1:26" s="22" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="22" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>22</v>
       </c>
@@ -1082,7 +1099,7 @@
       <c r="C10" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="28" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="27" t="s">
@@ -1091,74 +1108,77 @@
       <c r="F10" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="41" t="s">
+      <c r="G10" s="28" t="s">
         <v>27</v>
       </c>
       <c r="H10" s="20" t="s">
         <v>29</v>
       </c>
       <c r="I10" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="20" t="s">
+      <c r="K10" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="21" t="s">
+      <c r="L10" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="L10" s="20" t="s">
+      <c r="M10" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="21" t="s">
+      <c r="N10" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="N10" s="20" t="s">
+      <c r="O10" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="O10" s="21" t="s">
+      <c r="P10" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="P10" s="20" t="s">
+      <c r="Q10" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="Q10" s="21" t="s">
+      <c r="R10" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="R10" s="20" t="s">
+      <c r="S10" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="S10" s="21" t="s">
+      <c r="T10" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="T10" s="20" t="s">
+      <c r="U10" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="U10" s="21" t="s">
+      <c r="V10" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="V10" s="20" t="s">
+      <c r="W10" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="W10" s="21" t="s">
+      <c r="X10" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="X10" s="20" t="s">
+      <c r="Y10" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="Y10" s="21" t="s">
+      <c r="Z10" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="Z10" s="27" t="s">
+      <c r="AA10" s="27" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:26" s="10" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="38" t="s">
+    <row r="11" spans="1:27" s="10" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="40"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="35"/>
       <c r="E11" s="14"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
@@ -1168,55 +1188,56 @@
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
-      <c r="K11" s="13">
-        <f>SUM(K10:K10)</f>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13">
+        <f>SUM(L10:L10)</f>
         <v>0</v>
       </c>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13">
-        <f>SUM(M10:M10)</f>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13">
+        <f>SUM(N10:N10)</f>
         <v>0</v>
       </c>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13">
-        <f>SUM(O10:O10)</f>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13">
+        <f>SUM(P10:P10)</f>
         <v>0</v>
       </c>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13">
-        <f>SUM(Q10:Q10)</f>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13">
+        <f>SUM(R10:R10)</f>
         <v>0</v>
       </c>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13">
-        <f>SUM(S10:S10)</f>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13">
+        <f>SUM(T10:T10)</f>
         <v>0</v>
       </c>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13">
-        <f>SUM(U10:U10)</f>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13">
+        <f>SUM(V10:V10)</f>
         <v>0</v>
       </c>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13">
-        <f>SUM(W10:W10)</f>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13">
+        <f>SUM(X10:X10)</f>
         <v>0</v>
       </c>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="13">
-        <f>SUM(Y10:Y10)</f>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13">
+        <f>SUM(Z10:Z10)</f>
         <v>0</v>
       </c>
-      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="W13" s="28" t="s">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="X13" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="X13" s="28"/>
-      <c r="Y13" s="28"/>
+      <c r="Y13" s="38"/>
+      <c r="Z13" s="38"/>
     </row>
-    <row r="15" spans="1:26" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23"/>
       <c r="B15" s="24"/>
       <c r="C15" s="24"/>
@@ -1227,24 +1248,42 @@
       <c r="H15" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="K15" s="10"/>
+      <c r="I15" s="1"/>
       <c r="L15" s="10"/>
-      <c r="O15" s="10" t="s">
+      <c r="M15" s="10"/>
+      <c r="P15" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="P15" s="10"/>
       <c r="Q15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="25" t="s">
+      <c r="R15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="W15" s="10"/>
-      <c r="Y15" s="10"/>
-      <c r="Z15" s="26"/>
+      <c r="X15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="24">
+    <mergeCell ref="X13:Z13"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="Q7:R7"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="A11:D11"/>
@@ -1252,22 +1291,6 @@
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
-    <mergeCell ref="Z7:Z8"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="W13:Y13"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="R7:S7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>

--- a/MedicalLink/Templates/BC_PhauThuatThuThuat_ThanhToanPhauThuat.xlsx
+++ b/MedicalLink/Templates/BC_PhauThuatThuThuat_ThanhToanPhauThuat.xlsx
@@ -80,9 +80,6 @@
     <t>Tiền</t>
   </si>
   <si>
-    <t>BỆNH VIỆN HỮU NGHỊ VIỆT TIỆP</t>
-  </si>
-  <si>
     <t>TỔNG CỘNG</t>
   </si>
   <si>
@@ -201,6 +198,9 @@
   </si>
   <si>
     <t>&amp;=[DATA1].TYLE</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].TENBENHVIEN</t>
   </si>
 </sst>
 </file>
@@ -464,18 +464,36 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -484,24 +502,6 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -786,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA15"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="P1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="W14" sqref="W14"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,7 +825,7 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:27" s="5" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -834,14 +834,14 @@
       <c r="C2" s="3"/>
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
-      <c r="G2" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
+      <c r="G2" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
       <c r="P2" s="8"/>
@@ -856,106 +856,106 @@
     <row r="3" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
-      <c r="G3" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
+      <c r="G3" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
-      <c r="G4" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
+      <c r="G4" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
     </row>
     <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:27" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="31" t="s">
+      <c r="E7" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="31" t="s">
+      <c r="H7" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="J7" s="31" t="s">
+      <c r="I7" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="36" t="s">
+      <c r="K7" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="37"/>
-      <c r="M7" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="N7" s="37"/>
-      <c r="O7" s="36" t="s">
+      <c r="L7" s="36"/>
+      <c r="M7" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" s="36"/>
+      <c r="O7" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="R7" s="37"/>
-      <c r="S7" s="36" t="s">
+      <c r="P7" s="36"/>
+      <c r="Q7" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="R7" s="36"/>
+      <c r="S7" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="T7" s="37"/>
-      <c r="U7" s="36" t="s">
+      <c r="T7" s="36"/>
+      <c r="U7" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="V7" s="37"/>
-      <c r="W7" s="36" t="s">
+      <c r="V7" s="36"/>
+      <c r="W7" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="36" t="s">
+      <c r="X7" s="36"/>
+      <c r="Y7" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="Z7" s="37"/>
-      <c r="AA7" s="29" t="s">
+      <c r="Z7" s="36"/>
+      <c r="AA7" s="37" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
       <c r="K8" s="11" t="s">
         <v>15</v>
       </c>
@@ -1004,7 +1004,7 @@
       <c r="Z8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="AA8" s="30"/>
+      <c r="AA8" s="38"/>
     </row>
     <row r="9" spans="1:27" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -1091,94 +1091,94 @@
     </row>
     <row r="10" spans="1:27" s="22" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="C10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="D10" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="E10" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="20" t="s">
+      <c r="G10" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="H10" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="K10" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="20" t="s">
+      <c r="L10" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="L10" s="21" t="s">
+      <c r="M10" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="O10" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="M10" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="N10" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="O10" s="20" t="s">
+      <c r="P10" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="P10" s="21" t="s">
+      <c r="Q10" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="R10" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="S10" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="Q10" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="R10" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="S10" s="20" t="s">
+      <c r="T10" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="T10" s="21" t="s">
+      <c r="U10" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="U10" s="20" t="s">
+      <c r="V10" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="V10" s="21" t="s">
+      <c r="W10" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="W10" s="20" t="s">
+      <c r="X10" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="X10" s="21" t="s">
+      <c r="Y10" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="Y10" s="20" t="s">
+      <c r="Z10" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="Z10" s="21" t="s">
+      <c r="AA10" s="27" t="s">
         <v>41</v>
-      </c>
-      <c r="AA10" s="27" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:27" s="10" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="35"/>
+      <c r="A11" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="14"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
@@ -1231,35 +1231,35 @@
       <c r="AA11" s="14"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="X13" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y13" s="38"/>
-      <c r="Z13" s="38"/>
+      <c r="X13" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="29"/>
     </row>
     <row r="15" spans="1:27" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23"/>
       <c r="B15" s="24"/>
       <c r="C15" s="24"/>
       <c r="D15" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E15" s="26"/>
       <c r="H15" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I15" s="1"/>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
       <c r="P15" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
       <c r="T15" s="10"/>
       <c r="V15" s="10"/>
       <c r="W15" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X15" s="10"/>
       <c r="Z15" s="10"/>
@@ -1267,6 +1267,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="Q7:R7"/>
     <mergeCell ref="X13:Z13"/>
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="G3:L3"/>
@@ -1279,18 +1291,6 @@
     <mergeCell ref="O7:P7"/>
     <mergeCell ref="S7:T7"/>
     <mergeCell ref="I7:I8"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>

--- a/MedicalLink/Templates/BC_PhauThuatThuThuat_ThanhToanPhauThuat.xlsx
+++ b/MedicalLink/Templates/BC_PhauThuatThuThuat_ThanhToanPhauThuat.xlsx
@@ -464,6 +464,33 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -475,33 +502,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -787,7 +787,7 @@
   <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,14 +834,14 @@
       <c r="C2" s="3"/>
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
       <c r="P2" s="8"/>
@@ -856,106 +856,106 @@
     <row r="3" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
     </row>
     <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:27" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="33" t="s">
+      <c r="H7" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="33" t="s">
+      <c r="I7" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="J7" s="33" t="s">
+      <c r="J7" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="35" t="s">
+      <c r="K7" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="36"/>
-      <c r="M7" s="35" t="s">
+      <c r="L7" s="37"/>
+      <c r="M7" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="N7" s="36"/>
-      <c r="O7" s="35" t="s">
+      <c r="N7" s="37"/>
+      <c r="O7" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="35" t="s">
+      <c r="P7" s="37"/>
+      <c r="Q7" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="R7" s="36"/>
-      <c r="S7" s="35" t="s">
+      <c r="R7" s="37"/>
+      <c r="S7" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="T7" s="36"/>
-      <c r="U7" s="35" t="s">
+      <c r="T7" s="37"/>
+      <c r="U7" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="V7" s="36"/>
-      <c r="W7" s="35" t="s">
+      <c r="V7" s="37"/>
+      <c r="W7" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="X7" s="36"/>
-      <c r="Y7" s="35" t="s">
+      <c r="X7" s="37"/>
+      <c r="Y7" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="Z7" s="36"/>
-      <c r="AA7" s="37" t="s">
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="29" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
       <c r="K8" s="11" t="s">
         <v>15</v>
       </c>
@@ -1004,7 +1004,7 @@
       <c r="Z8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="AA8" s="38"/>
+      <c r="AA8" s="30"/>
     </row>
     <row r="9" spans="1:27" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -1089,7 +1089,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:27" s="22" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="22" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>21</v>
       </c>
@@ -1173,12 +1173,12 @@
       </c>
     </row>
     <row r="11" spans="1:27" s="10" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="41"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="35"/>
       <c r="E11" s="14"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
@@ -1231,11 +1231,11 @@
       <c r="AA11" s="14"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="X13" s="29" t="s">
+      <c r="X13" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="Y13" s="29"/>
-      <c r="Z13" s="29"/>
+      <c r="Y13" s="38"/>
+      <c r="Z13" s="38"/>
     </row>
     <row r="15" spans="1:27" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23"/>
@@ -1267,18 +1267,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="Q7:R7"/>
     <mergeCell ref="X13:Z13"/>
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="G3:L3"/>
@@ -1291,6 +1279,18 @@
     <mergeCell ref="O7:P7"/>
     <mergeCell ref="S7:T7"/>
     <mergeCell ref="I7:I8"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>

--- a/MedicalLink/Templates/BC_PhauThuatThuThuat_ThanhToanPhauThuat.xlsx
+++ b/MedicalLink/Templates/BC_PhauThuatThuThuat_ThanhToanPhauThuat.xlsx
@@ -464,18 +464,36 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -484,24 +502,6 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -787,7 +787,7 @@
   <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="H7" sqref="H7:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,14 +834,14 @@
       <c r="C2" s="3"/>
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
       <c r="P2" s="8"/>
@@ -856,106 +856,106 @@
     <row r="3" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
-      <c r="G4" s="41" t="s">
+      <c r="G4" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
     </row>
     <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:27" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="31" t="s">
+      <c r="H7" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="31" t="s">
+      <c r="I7" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="J7" s="31" t="s">
+      <c r="J7" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="36" t="s">
+      <c r="K7" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="37"/>
-      <c r="M7" s="36" t="s">
+      <c r="L7" s="36"/>
+      <c r="M7" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="N7" s="37"/>
-      <c r="O7" s="36" t="s">
+      <c r="N7" s="36"/>
+      <c r="O7" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="36" t="s">
+      <c r="P7" s="36"/>
+      <c r="Q7" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="R7" s="37"/>
-      <c r="S7" s="36" t="s">
+      <c r="R7" s="36"/>
+      <c r="S7" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="T7" s="37"/>
-      <c r="U7" s="36" t="s">
+      <c r="T7" s="36"/>
+      <c r="U7" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="V7" s="37"/>
-      <c r="W7" s="36" t="s">
+      <c r="V7" s="36"/>
+      <c r="W7" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="36" t="s">
+      <c r="X7" s="36"/>
+      <c r="Y7" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="Z7" s="37"/>
-      <c r="AA7" s="29" t="s">
+      <c r="Z7" s="36"/>
+      <c r="AA7" s="37" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
       <c r="K8" s="11" t="s">
         <v>15</v>
       </c>
@@ -1004,7 +1004,7 @@
       <c r="Z8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="AA8" s="30"/>
+      <c r="AA8" s="38"/>
     </row>
     <row r="9" spans="1:27" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -1173,12 +1173,12 @@
       </c>
     </row>
     <row r="11" spans="1:27" s="10" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="35"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="14"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
@@ -1231,11 +1231,11 @@
       <c r="AA11" s="14"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="X13" s="38" t="s">
+      <c r="X13" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Y13" s="38"/>
-      <c r="Z13" s="38"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="29"/>
     </row>
     <row r="15" spans="1:27" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23"/>
@@ -1267,6 +1267,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="Q7:R7"/>
     <mergeCell ref="X13:Z13"/>
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="G3:L3"/>
@@ -1279,21 +1291,9 @@
     <mergeCell ref="O7:P7"/>
     <mergeCell ref="S7:T7"/>
     <mergeCell ref="I7:I8"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="55" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;CTrang &amp;P</oddFooter>

--- a/MedicalLink/Templates/BC_PhauThuatThuThuat_ThanhToanPhauThuat.xlsx
+++ b/MedicalLink/Templates/BC_PhauThuatThuThuat_ThanhToanPhauThuat.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\O2S_MedicalLink\trunk\MedicalLink\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolsHIS-MedicalLink\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -212,7 +212,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,6 +280,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -392,7 +398,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -401,9 +407,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -424,26 +427,11 @@
     <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -458,17 +446,38 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -786,489 +795,488 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA15"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:H8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="9" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="12.140625" style="3" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="8" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="30" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="15.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="19.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" style="7" customWidth="1"/>
-    <col min="13" max="13" width="17.140625" style="7" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" style="7" customWidth="1"/>
-    <col min="15" max="15" width="17.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.28515625" style="7" customWidth="1"/>
-    <col min="17" max="17" width="17.140625" style="7" customWidth="1"/>
-    <col min="18" max="18" width="13.28515625" style="7" customWidth="1"/>
-    <col min="19" max="19" width="17.140625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="13.28515625" style="7" customWidth="1"/>
-    <col min="21" max="21" width="17.140625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="13.28515625" style="7" customWidth="1"/>
-    <col min="23" max="23" width="17.140625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="13.28515625" style="7" customWidth="1"/>
-    <col min="25" max="25" width="17.140625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="13.28515625" style="7" customWidth="1"/>
-    <col min="27" max="27" width="16.42578125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="27.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="6" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" style="6" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9" style="6" customWidth="1"/>
+    <col min="17" max="17" width="11" style="6" customWidth="1"/>
+    <col min="18" max="18" width="9.5703125" style="6" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9.42578125" style="6" customWidth="1"/>
+    <col min="21" max="21" width="11.7109375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="8.7109375" style="6" customWidth="1"/>
+    <col min="23" max="23" width="12.42578125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="9.42578125" style="6" customWidth="1"/>
+    <col min="25" max="25" width="11.42578125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="8.7109375" style="6" customWidth="1"/>
+    <col min="27" max="27" width="16.42578125" style="8" customWidth="1"/>
     <col min="28" max="28" width="8.42578125" style="1" customWidth="1"/>
     <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="5" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
+    <row r="2" spans="1:27" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="30" t="s">
+      <c r="E2" s="30" t="s">
         <v>48</v>
       </c>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
       <c r="H2" s="30"/>
       <c r="I2" s="30"/>
       <c r="J2" s="30"/>
       <c r="K2" s="30"/>
       <c r="L2" s="30"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="9"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="8"/>
     </row>
     <row r="3" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="31" t="s">
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="32" t="s">
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
     </row>
     <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:27" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+    <row r="7" spans="1:27" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="33" t="s">
+      <c r="H7" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="33" t="s">
+      <c r="I7" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="J7" s="33" t="s">
+      <c r="J7" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="35" t="s">
+      <c r="K7" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="36"/>
-      <c r="M7" s="35" t="s">
+      <c r="L7" s="37"/>
+      <c r="M7" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="N7" s="36"/>
-      <c r="O7" s="35" t="s">
+      <c r="N7" s="37"/>
+      <c r="O7" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="35" t="s">
+      <c r="P7" s="37"/>
+      <c r="Q7" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="R7" s="36"/>
-      <c r="S7" s="35" t="s">
+      <c r="R7" s="37"/>
+      <c r="S7" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="T7" s="36"/>
-      <c r="U7" s="35" t="s">
+      <c r="T7" s="37"/>
+      <c r="U7" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="V7" s="36"/>
-      <c r="W7" s="35" t="s">
+      <c r="V7" s="37"/>
+      <c r="W7" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="X7" s="36"/>
-      <c r="Y7" s="35" t="s">
+      <c r="X7" s="37"/>
+      <c r="Y7" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="Z7" s="36"/>
-      <c r="AA7" s="37" t="s">
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="38" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="11" t="s">
+    <row r="8" spans="1:27" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="12" t="s">
+      <c r="L8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="M8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="12" t="s">
+      <c r="N8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="O8" s="11" t="s">
+      <c r="O8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="P8" s="12" t="s">
+      <c r="P8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Q8" s="11" t="s">
+      <c r="Q8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="R8" s="12" t="s">
+      <c r="R8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="S8" s="11" t="s">
+      <c r="S8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="T8" s="12" t="s">
+      <c r="T8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="U8" s="11" t="s">
+      <c r="U8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="V8" s="12" t="s">
+      <c r="V8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="W8" s="11" t="s">
+      <c r="W8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="X8" s="12" t="s">
+      <c r="X8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Y8" s="11" t="s">
+      <c r="Y8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="Z8" s="12" t="s">
+      <c r="Z8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="AA8" s="38"/>
+      <c r="AA8" s="39"/>
     </row>
-    <row r="9" spans="1:27" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+    <row r="9" spans="1:27" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="27">
         <v>1</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="27">
         <v>2</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="27">
         <v>3</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="27">
         <v>4</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="27">
         <v>5</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="27">
         <v>6</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="27">
         <v>7</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="27">
         <v>8</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="27">
         <v>9</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="27">
         <v>10</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="27">
         <v>11</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="27">
         <v>12</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="27">
         <v>13</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="27">
         <v>14</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="27">
         <v>15</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="27">
         <v>16</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="27">
         <v>17</v>
       </c>
-      <c r="R9" s="4">
+      <c r="R9" s="27">
         <v>18</v>
       </c>
-      <c r="S9" s="4">
+      <c r="S9" s="27">
         <v>19</v>
       </c>
-      <c r="T9" s="4">
+      <c r="T9" s="27">
         <v>20</v>
       </c>
-      <c r="U9" s="4">
+      <c r="U9" s="27">
         <v>21</v>
       </c>
-      <c r="V9" s="4">
+      <c r="V9" s="27">
         <v>22</v>
       </c>
-      <c r="W9" s="4">
+      <c r="W9" s="27">
         <v>23</v>
       </c>
-      <c r="X9" s="4">
+      <c r="X9" s="27">
         <v>24</v>
       </c>
-      <c r="Y9" s="4">
+      <c r="Y9" s="27">
         <v>25</v>
       </c>
-      <c r="Z9" s="4">
+      <c r="Z9" s="27">
         <v>26</v>
       </c>
-      <c r="AA9" s="4">
+      <c r="AA9" s="27">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:27" s="22" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+    <row r="10" spans="1:27" s="16" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="H10" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="I10" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="20" t="s">
+      <c r="J10" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="20" t="s">
+      <c r="K10" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="L10" s="21" t="s">
+      <c r="L10" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="M10" s="20" t="s">
+      <c r="M10" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="N10" s="21" t="s">
+      <c r="N10" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="O10" s="20" t="s">
+      <c r="O10" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="P10" s="21" t="s">
+      <c r="P10" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="Q10" s="20" t="s">
+      <c r="Q10" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="R10" s="21" t="s">
+      <c r="R10" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="S10" s="20" t="s">
+      <c r="S10" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="T10" s="21" t="s">
+      <c r="T10" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="U10" s="20" t="s">
+      <c r="U10" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="V10" s="21" t="s">
+      <c r="V10" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="W10" s="20" t="s">
+      <c r="W10" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="X10" s="21" t="s">
+      <c r="X10" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="Y10" s="20" t="s">
+      <c r="Y10" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="Z10" s="21" t="s">
+      <c r="Z10" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="AA10" s="27" t="s">
+      <c r="AA10" s="24" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:27" s="10" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="39" t="s">
+    <row r="11" spans="1:27" s="9" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13">
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12">
         <f>SUM(H10:H10)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13">
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12">
         <f>SUM(L10:L10)</f>
         <v>0</v>
       </c>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13">
+      <c r="M11" s="12"/>
+      <c r="N11" s="12">
         <f>SUM(N10:N10)</f>
         <v>0</v>
       </c>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13">
+      <c r="O11" s="12"/>
+      <c r="P11" s="12">
         <f>SUM(P10:P10)</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13">
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12">
         <f>SUM(R10:R10)</f>
         <v>0</v>
       </c>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13">
+      <c r="S11" s="12"/>
+      <c r="T11" s="12">
         <f>SUM(T10:T10)</f>
         <v>0</v>
       </c>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13">
+      <c r="U11" s="12"/>
+      <c r="V11" s="12">
         <f>SUM(V10:V10)</f>
         <v>0</v>
       </c>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13">
+      <c r="W11" s="12"/>
+      <c r="X11" s="12">
         <f>SUM(X10:X10)</f>
         <v>0</v>
       </c>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="13">
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12">
         <f>SUM(Z10:Z10)</f>
         <v>0</v>
       </c>
-      <c r="AA11" s="14"/>
+      <c r="AA11" s="13"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="X13" s="29" t="s">
+      <c r="X13" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Y13" s="29"/>
-      <c r="Z13" s="29"/>
+      <c r="Y13" s="31"/>
+      <c r="Z13" s="31"/>
     </row>
-    <row r="15" spans="1:27" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="25" t="s">
+    <row r="15" spans="1:27" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="H15" s="25" t="s">
+      <c r="E15" s="20"/>
+      <c r="H15" s="19" t="s">
         <v>50</v>
       </c>
       <c r="I15" s="1"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="P15" s="10" t="s">
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="P15" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="25" t="s">
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="X15" s="10"/>
-      <c r="Z15" s="10"/>
-      <c r="AA15" s="26"/>
+      <c r="X15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -1279,8 +1287,8 @@
     <mergeCell ref="W7:X7"/>
     <mergeCell ref="Y7:Z7"/>
     <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="E2:O2"/>
     <mergeCell ref="X13:Z13"/>
-    <mergeCell ref="G2:L2"/>
     <mergeCell ref="G3:L3"/>
     <mergeCell ref="G4:L4"/>
     <mergeCell ref="G7:G8"/>
@@ -1291,10 +1299,12 @@
     <mergeCell ref="O7:P7"/>
     <mergeCell ref="S7:T7"/>
     <mergeCell ref="I7:I8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="55" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="75" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;CTrang &amp;P</oddFooter>
   </headerFooter>

--- a/MedicalLink/Templates/BC_PhauThuatThuThuat_ThanhToanPhauThuat.xlsx
+++ b/MedicalLink/Templates/BC_PhauThuatThuThuat_ThanhToanPhauThuat.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolsHIS-MedicalLink\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\O2S_MedicalLink\trunk\MedicalLink\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -473,6 +473,33 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -484,33 +511,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -796,7 +796,7 @@
   <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,19 +841,19 @@
       <c r="A2" s="5"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
@@ -866,106 +866,106 @@
     <row r="3" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
     </row>
     <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:27" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="G7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="34" t="s">
+      <c r="H7" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="34" t="s">
+      <c r="I7" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="J7" s="34" t="s">
+      <c r="J7" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="36" t="s">
+      <c r="K7" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="37"/>
-      <c r="M7" s="36" t="s">
+      <c r="L7" s="38"/>
+      <c r="M7" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="N7" s="37"/>
-      <c r="O7" s="36" t="s">
+      <c r="N7" s="38"/>
+      <c r="O7" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="36" t="s">
+      <c r="P7" s="38"/>
+      <c r="Q7" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="R7" s="37"/>
-      <c r="S7" s="36" t="s">
+      <c r="R7" s="38"/>
+      <c r="S7" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="T7" s="37"/>
-      <c r="U7" s="36" t="s">
+      <c r="T7" s="38"/>
+      <c r="U7" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="V7" s="37"/>
-      <c r="W7" s="36" t="s">
+      <c r="V7" s="38"/>
+      <c r="W7" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="36" t="s">
+      <c r="X7" s="38"/>
+      <c r="Y7" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="Z7" s="37"/>
-      <c r="AA7" s="38" t="s">
+      <c r="Z7" s="38"/>
+      <c r="AA7" s="35" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:27" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
       <c r="K8" s="10" t="s">
         <v>15</v>
       </c>
@@ -1014,7 +1014,7 @@
       <c r="Z8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="AA8" s="39"/>
+      <c r="AA8" s="36"/>
     </row>
     <row r="9" spans="1:27" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="27">
@@ -1183,12 +1183,12 @@
       </c>
     </row>
     <row r="11" spans="1:27" s="9" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="42"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="32"/>
       <c r="E11" s="13"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -1241,11 +1241,11 @@
       <c r="AA11" s="13"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="X13" s="31" t="s">
+      <c r="X13" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="Y13" s="31"/>
-      <c r="Z13" s="31"/>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="40"/>
     </row>
     <row r="15" spans="1:27" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
@@ -1277,16 +1277,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="Q7:R7"/>
     <mergeCell ref="E2:O2"/>
     <mergeCell ref="X13:Z13"/>
     <mergeCell ref="G3:L3"/>
@@ -1301,9 +1291,19 @@
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="75" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;CTrang &amp;P</oddFooter>
